--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1401543.30934291</v>
+        <v>-1403493.535171472</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541414.5772424381</v>
+        <v>230278.6562857205</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>37.55029853296593</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>115.3965317940441</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -789,7 +789,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.75696784121567</v>
+        <v>36.86740133315055</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48.58784251539129</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>408.9565250501386</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>326.7055047283657</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>110.5260412995376</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>96.18663114486746</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>173.9313784350751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>75.43458761174553</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>33.35146980186124</v>
       </c>
     </row>
     <row r="14">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>52.23840074626199</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>30.15451601838717</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>142.7197497247933</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>108.6200406500437</v>
       </c>
       <c r="U22" t="n">
-        <v>277.0206026928545</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>161.8175117958949</v>
       </c>
       <c r="C25" t="n">
-        <v>3.34769566476333</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898755</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
         <v>80.48358288857169</v>
@@ -2728,10 +2728,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789589</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>932.2014054355411</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C2" t="n">
-        <v>563.2388884951295</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="D2" t="n">
-        <v>563.2388884951295</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="E2" t="n">
-        <v>177.4506358968852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>170.5051351476818</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1322.340737411353</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>932.2014054355411</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4437,13 +4437,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y4" t="n">
         <v>235.5914466506042</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1205.211005614513</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>794.2251008249057</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1271.984870679801</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240415</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.109440255352</v>
+        <v>1117.800419524901</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2530.477935589588</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2530.477935589588</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2530.477935589588</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2530.477935589588</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2177.709280319473</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>2177.709280319473</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y8" t="n">
-        <v>2177.709280319473</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>196.757719530874</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>196.757719530874</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>196.757719530874</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>196.757719530874</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>196.757719530874</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y10" t="n">
-        <v>552.4407231609042</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,13 +5039,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1847.655958041207</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N12" t="n">
-        <v>2192.176613678825</v>
+        <v>1632.846287851668</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>1881.59970193563</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>510.5251492115494</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>341.5889662836425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>341.5889662836425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>341.5889662836425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028587</v>
@@ -5197,16 +5197,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.84116711973</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035283</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247885</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383467</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324599</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550796</v>
+        <v>130.9054447954992</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3177283550796</v>
+        <v>130.9054447954992</v>
       </c>
       <c r="Y13" t="n">
-        <v>510.5251492115494</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,52 +5276,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>877.4353633695368</v>
+        <v>979.7540695130117</v>
       </c>
       <c r="M15" t="n">
-        <v>1645.803509761998</v>
+        <v>1748.122215905473</v>
       </c>
       <c r="N15" t="n">
-        <v>1990.324165399617</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>674.9567375132466</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033469</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>909.3712637033469</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>856.6052023434863</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>856.6052023434863</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5513,34 +5513,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5598,22 +5598,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M18" t="n">
-        <v>334.2881267578666</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022017</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.7290208898085</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>277.7928379619016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>127.6761985495658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>127.6761985495658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>127.6761985495658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5671,7 +5671,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247865</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>964.1357418247865</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878258</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X19" t="n">
-        <v>446.7290208898085</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.7290208898085</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
@@ -5753,16 +5753,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5783,13 +5783,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5832,25 +5832,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899877</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254139</v>
+        <v>1850.959268203227</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.9958217162123</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1078.203944257458</v>
       </c>
       <c r="U22" t="n">
-        <v>1219.09747995906</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V22" t="n">
-        <v>964.4129917531729</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W22" t="n">
-        <v>674.9958217162123</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>674.9958217162123</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.9958217162123</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155918</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899877</v>
+        <v>542.9099710478251</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.963989254139</v>
+        <v>1347.321549311976</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.785310614635</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.5986022327741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028587</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141522</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0291971045613</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X25" t="n">
-        <v>503.0396462065439</v>
+        <v>481.4617027208816</v>
       </c>
       <c r="Y25" t="n">
-        <v>282.2470670630138</v>
+        <v>260.6691235773515</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,64 +6212,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578666</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022017</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6361,34 +6361,34 @@
         <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
@@ -6455,19 +6455,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M30" t="n">
-        <v>334.2881267578666</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022017</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6722,25 +6722,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>120.8369117590966</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>531.7271806036092</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N33" t="n">
-        <v>2103.272883640391</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.272883640391</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,16 +6859,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6929,10 +6929,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6944,37 +6944,37 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M36" t="n">
-        <v>1954.109744073479</v>
+        <v>647.5155168583368</v>
       </c>
       <c r="N36" t="n">
-        <v>1954.109744073479</v>
+        <v>1451.927095122488</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2121.390856425147</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7172,25 +7172,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M39" t="n">
-        <v>334.288126757867</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1297.912977745148</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1967.376739047807</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,10 +7330,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M42" t="n">
-        <v>1983.943432422806</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N42" t="n">
-        <v>2328.464088060424</v>
+        <v>1824.002963247254</v>
       </c>
       <c r="O42" t="n">
-        <v>2328.464088060424</v>
+        <v>2493.466724549913</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1220.905903778934</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1565.426559416552</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>1814.179973500514</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2334.480595236261</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9246,10 +9246,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>238.8571570853795</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>350.1659984858683</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417969</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10437,16 +10437,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>178.3913131276564</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10674,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>381.5997261417972</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>254.6580121910221</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>344.3800715392958</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>235.8534538861524</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>191.2109363803762</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.8276855108791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>69.98646041118572</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.2331835502335</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>173.4712546427752</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>136.3390524449904</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.98990566424382</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>112.9275204083455</v>
       </c>
       <c r="U22" t="n">
-        <v>9.216749705722862</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>18.01446838604238</v>
       </c>
       <c r="C25" t="n">
-        <v>163.8991254338645</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1270844.444147555</v>
+        <v>1270844.444147554</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96832.57803770923</v>
+        <v>96832.57803770925</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,10 +26320,10 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>97757.26493442722</v>
+        <v>97757.26493442725</v>
       </c>
       <c r="F2" t="n">
-        <v>97757.26493442724</v>
+        <v>97757.26493442721</v>
       </c>
       <c r="G2" t="n">
         <v>97757.26493442722</v>
@@ -26332,16 +26332,16 @@
         <v>97757.26493442718</v>
       </c>
       <c r="I2" t="n">
-        <v>97757.26493442721</v>
+        <v>97757.26493442719</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330356</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758476</v>
+        <v>787.7936905758372</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758372</v>
+        <v>787.7936905758489</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759185</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="K5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-688580.6876065911</v>
+        <v>-688696.6404704979</v>
       </c>
       <c r="C6" t="n">
         <v>-119287.9960109931</v>
@@ -26528,28 +26528,28 @@
         <v>-119287.9960109931</v>
       </c>
       <c r="E6" t="n">
-        <v>-520177.8911817612</v>
+        <v>-520275.3503077339</v>
       </c>
       <c r="F6" t="n">
-        <v>4982.145295134731</v>
+        <v>4884.686169162538</v>
       </c>
       <c r="G6" t="n">
-        <v>4982.145295134716</v>
+        <v>4884.686169162582</v>
       </c>
       <c r="H6" t="n">
-        <v>4982.145295134687</v>
+        <v>4884.686169162523</v>
       </c>
       <c r="I6" t="n">
-        <v>4982.145295134687</v>
+        <v>4884.686169162479</v>
       </c>
       <c r="J6" t="n">
-        <v>-249220.1968151917</v>
+        <v>-249220.1968151916</v>
       </c>
       <c r="K6" t="n">
-        <v>-18291.46551888618</v>
+        <v>-18291.46551888615</v>
       </c>
       <c r="L6" t="n">
-        <v>-18291.46551888615</v>
+        <v>-18291.46551888622</v>
       </c>
       <c r="M6" t="n">
         <v>-153092.4807527233</v>
@@ -26558,10 +26558,10 @@
         <v>-18291.46551888619</v>
       </c>
       <c r="O6" t="n">
-        <v>-72796.9776225987</v>
+        <v>-72796.97762259872</v>
       </c>
       <c r="P6" t="n">
-        <v>-18291.46551888617</v>
+        <v>-18291.46551888619</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,43 +26735,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>62.53418434059847</v>
-      </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>132.711836383981</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>181.7172520189442</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>334.1459991480893</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>4.827644970656422</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>17.40933785016585</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>38.56738704264183</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>63.8896715094339</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>59.98425769692768</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>44.65327491701964</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.073837398105146e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31118,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M3" t="n">
-        <v>190.1500580638411</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31364,16 +31364,16 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M6" t="n">
-        <v>190.1500580638411</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.4344768999344</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>409.410311565473</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,19 +31856,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>256.1524206203465</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,13 +32075,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>244.1248518584485</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724846</v>
@@ -32090,16 +32090,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>388.3797231237975</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,7 +32309,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32318,25 +32318,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>47.68583217771453</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>340.8546090773496</v>
+        <v>35.83627885109473</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32798,25 +32798,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>340.8546090773496</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>119.601300742564</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,19 +33251,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -33272,25 +33272,25 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>24.60499566849087</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>348.9381740704318</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>241.9339401282941</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647517</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -33983,25 +33983,25 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>169.5089487898646</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34144,7 +34144,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946992</v>
@@ -34208,31 +34208,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>379.0732128071263</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>211.1801409386339</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
-        <v>513.7210878918227</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M6" t="n">
-        <v>513.7210878918227</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>732.9813413934546</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,13 +35504,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>440.6407818459534</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187686</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>476.4108173820335</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
@@ -35738,16 +35738,16 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>639.6457979560826</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197785</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>395.6864944379348</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>592.1206839096346</v>
+        <v>287.1023536833798</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>592.1206839096346</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>304.089661968171</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197785</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>107.5154450020462</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>211.6116187059941</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197785</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>23.85840434223301</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>47.04960104432308</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>672.5092038984134</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>426.422301353901</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>239.4656922197789</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>353.9973100154715</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>702.6442426351078</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>120.6836047766919</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>281.2756545884615</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
